--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,11 +467,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,36 +490,6 @@
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>13</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Fly with caution</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8-10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,29 +467,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13-15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>13</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Fly with caution</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>8-10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
